--- a/pred_ohlcv/54_21/2020-01-19 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>443356.432143659</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>471091.645343659</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>468190.359643659</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>462979.758243659</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>463236.0713436591</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>461677.1575436591</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>462124.6977436591</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>462210.6400436591</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>462097.088943659</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>462097.088943659</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>462235.024943659</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>462235.024943659</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>462235.024943659</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>463229.034343659</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>463229.034343659</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>463229.034343659</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>429507.8199532532</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>427123.8113532532</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>427861.7591532532</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>427861.7591532532</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>277519.5204532532</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>262632.8247532532</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>263334.0350532532</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>268061.2250532532</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>227650.0626532532</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>230710.4845532532</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>231924.7205532532</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>208924.7205532532</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>289208.9704358882</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>302574.7756358882</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>296342.2883358882</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>335805.3252358882</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>768865.6263358882</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>824025.3539358882</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>752885.2700624029</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>695876.8884358882</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>695885.8884358882</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>695858.8884358882</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>701385.6488358882</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>716586.5852358883</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>608955.6001358882</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>622383.8034946099</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>589500.2855946099</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>571979.80729461</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>561402.80439461</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>468417.6790211247</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>476375.9631211247</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>476375.9631211247</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>476375.9631211247</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>476387.1322211247</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>476387.1322211247</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>448421.4019211247</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>448421.4019211247</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>448421.4019211247</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>440438.0241211247</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>440460.8097211247</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>437057.3170211247</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>437079.8394211247</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>435999.8394211247</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>419712.0707211247</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>494666.4425211247</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>494666.4425211247</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>494666.4425211247</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>494395.1346211247</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>491395.1346211247</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>491395.3373211247</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>498054.4453211247</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>466397.1902211247</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>452875.5159211247</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1137661.358551469</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1183402.692574682</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1138484.501874682</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1058576.078574683</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1135667.196374683</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1202877.004774683</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1200469.588290741</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1199665.854600838</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1197930.505900838</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1012238.684100838</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>973311.9957008379</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1065512.059700838</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1066085.933700838</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1114132.068800838</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>443356.432143659</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>450468.3968436591</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>475310.5674436591</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>471091.645343659</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>471091.645343659</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>467932.4152436591</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>468190.359643659</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>462979.758243659</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>461677.1575436591</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>429507.8199532532</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>427123.8113532532</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>427861.7591532532</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>427861.7591532532</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>277519.5204532532</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>262632.8247532532</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>263334.0350532532</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>268061.2250532532</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>227650.0626532532</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>230710.4845532532</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>231924.7205532532</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>208924.7205532532</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>211495.7205532532</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>211495.7205532532</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>234495.7205532532</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>235687.3880532532</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>232256.1141532532</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>274697.3003532531</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>289403.7358358881</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>286978.4845358881</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>280661.1896358881</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>275075.0357358881</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>278875.0357358881</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>280190.8116358881</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>289208.9704358882</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>295665.7410358881</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>302574.7756358882</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>296342.2883358882</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>768865.6263358882</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>824025.3539358882</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>752885.2700624029</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>695876.8884358882</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>695885.8884358882</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>695858.8884358882</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>701385.6488358882</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>716586.5852358883</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>608955.6001358882</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>622383.8034946099</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>589500.2855946099</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>571979.80729461</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>561402.80439461</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>468417.6790211247</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>476375.9631211247</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>476375.9631211247</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>476375.9631211247</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>476387.1322211247</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>476387.1322211247</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>448421.4019211247</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>448421.4019211247</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>448421.4019211247</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>440438.0241211247</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>440460.8097211247</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>437057.3170211247</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>437079.8394211247</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>435999.8394211247</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>419712.0707211247</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>494666.4425211247</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>494666.4425211247</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>494666.4425211247</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>494395.1346211247</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>491395.1346211247</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>491395.3373211247</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>498054.4453211247</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>466397.1902211247</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>452875.5159211247</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1072155.800523979</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1137661.358551469</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1183402.692574682</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1138484.501874682</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1058576.078574683</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1135667.196374683</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1202877.004774683</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1200469.588290741</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1199665.854600838</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1197930.505900838</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1012238.684100838</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>973311.9957008379</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1076321.748400838</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1114132.068800838</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
